--- a/Statistic/Data_covariate.xlsx
+++ b/Statistic/Data_covariate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oj/Desktop/Yoo_Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF3D8C1-8F9E-814E-BDEA-F6325796C874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D404AEBA-6934-B64E-9F1D-7AB3C400606F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1260" windowWidth="30240" windowHeight="17720" xr2:uid="{9F7FD533-DA3E-C947-BA0A-FA260B5F7D04}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="4" xr2:uid="{9F7FD533-DA3E-C947-BA0A-FA260B5F7D04}"/>
   </bookViews>
   <sheets>
     <sheet name="NML" sheetId="1" r:id="rId1"/>
@@ -902,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3623859-A98D-E746-B095-458FD0E34931}">
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -3415,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DD9C396-8B06-D84D-862C-3F92D170ED84}">
   <dimension ref="B2:E141"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E141" sqref="E141"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
